--- a/Files/INFORMATIVO 5° GRE - MODELO.xlsx
+++ b/Files/INFORMATIVO 5° GRE - MODELO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarde\OneDrive\Documentos\RELATÓRIOS\RUN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarde\OneDrive\Documentos\RELATÓRIOS\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="47">
   <si>
     <t>PLACA</t>
   </si>
@@ -45,9 +45,6 @@
     <t>~</t>
   </si>
   <si>
-    <t>MAIO</t>
-  </si>
-  <si>
     <t>MANHÃ</t>
   </si>
   <si>
@@ -157,13 +154,19 @@
   </si>
   <si>
     <t>NGC-9103</t>
+  </si>
+  <si>
+    <t>JUNHO</t>
+  </si>
+  <si>
+    <t>NQQ-3947</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,9 +178,17 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,13 +229,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,16 +578,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -584,1616 +598,1696 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
+      <c r="A20" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
+      <c r="A21" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
+      <c r="A22" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Files/INFORMATIVO 5° GRE - MODELO.xlsx
+++ b/Files/INFORMATIVO 5° GRE - MODELO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="50">
   <si>
     <t>PLACA</t>
   </si>
@@ -156,10 +156,19 @@
     <t>NGC-9103</t>
   </si>
   <si>
-    <t>JUNHO</t>
-  </si>
-  <si>
     <t>NQQ-3947</t>
+  </si>
+  <si>
+    <t>LNB-8308</t>
+  </si>
+  <si>
+    <t>DCP-1236</t>
+  </si>
+  <si>
+    <t>JRJ-5917</t>
+  </si>
+  <si>
+    <t>JULHO</t>
   </si>
 </sst>
 </file>
@@ -542,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,13 +581,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -592,13 +601,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -612,19 +621,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -632,19 +641,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -652,13 +661,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -672,13 +681,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -698,10 +707,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -718,10 +727,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -732,13 +741,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -747,18 +756,18 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -767,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -778,10 +787,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -798,10 +807,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -812,42 +821,42 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -858,10 +867,10 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -878,10 +887,10 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -892,13 +901,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -912,36 +921,36 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -951,17 +960,17 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
+      <c r="A21" t="s">
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -972,16 +981,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -992,56 +1001,56 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1058,10 +1067,10 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1078,10 +1087,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1092,16 +1101,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1112,16 +1121,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1138,10 +1147,10 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1158,10 +1167,10 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1172,16 +1181,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1192,16 +1201,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1212,16 +1221,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -1232,16 +1241,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1252,16 +1261,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -1272,16 +1281,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1292,13 +1301,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -1312,13 +1321,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -1332,13 +1341,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -1352,13 +1361,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -1372,13 +1381,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -1392,13 +1401,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -1412,16 +1421,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -1432,16 +1441,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -1452,13 +1461,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
@@ -1467,18 +1476,18 @@
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -1487,18 +1496,18 @@
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -1507,18 +1516,18 @@
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -1527,18 +1536,18 @@
         <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -1547,18 +1556,18 @@
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -1567,21 +1576,21 @@
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
@@ -1592,16 +1601,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -1612,16 +1621,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
@@ -1632,16 +1641,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -1652,136 +1661,136 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
@@ -1792,16 +1801,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -1812,16 +1821,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
@@ -1832,16 +1841,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -1852,133 +1861,133 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -1987,18 +1996,18 @@
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2007,184 +2016,184 @@
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
         <v>40</v>
@@ -2192,19 +2201,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
         <v>40</v>
@@ -2212,19 +2221,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
         <v>40</v>
@@ -2232,19 +2241,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
         <v>40</v>
@@ -2252,19 +2261,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F86" t="s">
         <v>40</v>
@@ -2272,21 +2281,221 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
-        <v>45</v>
-      </c>
-      <c r="D87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="B94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
         <v>40</v>
       </c>
     </row>
